--- a/artfynd/A 43056-2025 artfynd.xlsx
+++ b/artfynd/A 43056-2025 artfynd.xlsx
@@ -906,45 +906,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131258602</v>
+        <v>131258595</v>
       </c>
       <c r="B4" t="n">
-        <v>92531</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Vitmossen, Upl</t>
+          <t>Östmossen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>661212</v>
+        <v>661120</v>
       </c>
       <c r="R4" t="n">
-        <v>6660675</v>
+        <v>6660717</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1013,45 +1013,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131258596</v>
+        <v>131258602</v>
       </c>
       <c r="B5" t="n">
-        <v>91809</v>
+        <v>92531</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Östmossen, Upl</t>
+          <t>Vitmossen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>661129</v>
+        <v>661212</v>
       </c>
       <c r="R5" t="n">
-        <v>6660729</v>
+        <v>6660675</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,10 +1120,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131258595</v>
+        <v>131258596</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>91809</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1131,21 +1131,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>661120</v>
+        <v>661129</v>
       </c>
       <c r="R6" t="n">
-        <v>6660717</v>
+        <v>6660729</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 43056-2025 artfynd.xlsx
+++ b/artfynd/A 43056-2025 artfynd.xlsx
@@ -906,45 +906,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131258595</v>
+        <v>131258602</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>92532</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Östmossen, Upl</t>
+          <t>Vitmossen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>661120</v>
+        <v>661212</v>
       </c>
       <c r="R4" t="n">
-        <v>6660717</v>
+        <v>6660675</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1013,45 +1013,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131258602</v>
+        <v>131258596</v>
       </c>
       <c r="B5" t="n">
-        <v>92531</v>
+        <v>91810</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Vitmossen, Upl</t>
+          <t>Östmossen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>661212</v>
+        <v>661129</v>
       </c>
       <c r="R5" t="n">
-        <v>6660675</v>
+        <v>6660729</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,10 +1120,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131258596</v>
+        <v>131258595</v>
       </c>
       <c r="B6" t="n">
-        <v>91809</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1131,21 +1131,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>661129</v>
+        <v>661120</v>
       </c>
       <c r="R6" t="n">
-        <v>6660729</v>
+        <v>6660717</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1551,7 +1551,7 @@
         <v>131258605</v>
       </c>
       <c r="B10" t="n">
-        <v>92268</v>
+        <v>92269</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>131258594</v>
       </c>
       <c r="B12" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/artfynd/A 43056-2025 artfynd.xlsx
+++ b/artfynd/A 43056-2025 artfynd.xlsx
@@ -909,7 +909,7 @@
         <v>131258602</v>
       </c>
       <c r="B4" t="n">
-        <v>92532</v>
+        <v>92535</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>131258596</v>
       </c>
       <c r="B5" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>131258605</v>
       </c>
       <c r="B10" t="n">
-        <v>92269</v>
+        <v>92272</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>131258594</v>
       </c>
       <c r="B12" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/artfynd/A 43056-2025 artfynd.xlsx
+++ b/artfynd/A 43056-2025 artfynd.xlsx
@@ -906,45 +906,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131258602</v>
+        <v>131258596</v>
       </c>
       <c r="B4" t="n">
-        <v>92535</v>
+        <v>91814</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Vitmossen, Upl</t>
+          <t>Östmossen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>661212</v>
+        <v>661129</v>
       </c>
       <c r="R4" t="n">
-        <v>6660675</v>
+        <v>6660729</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1013,45 +1013,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131258596</v>
+        <v>131258602</v>
       </c>
       <c r="B5" t="n">
-        <v>91813</v>
+        <v>92536</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Östmossen, Upl</t>
+          <t>Vitmossen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>661129</v>
+        <v>661212</v>
       </c>
       <c r="R5" t="n">
-        <v>6660729</v>
+        <v>6660675</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1551,7 +1551,7 @@
         <v>131258605</v>
       </c>
       <c r="B10" t="n">
-        <v>92272</v>
+        <v>92273</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>131258594</v>
       </c>
       <c r="B12" t="n">
-        <v>91813</v>
+        <v>91814</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
